--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B615"/>
+  <dimension ref="A1:B616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5210,7 +5210,7 @@
         <v>44581</v>
       </c>
       <c r="B603">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5274,7 +5274,7 @@
         <v>44589</v>
       </c>
       <c r="B611">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5282,7 +5282,7 @@
         <v>44590</v>
       </c>
       <c r="B612">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5306,7 +5306,15 @@
         <v>44593</v>
       </c>
       <c r="B615">
-        <v>62</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B616">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B616"/>
+  <dimension ref="A1:B619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5218,7 +5218,7 @@
         <v>44582</v>
       </c>
       <c r="B604">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5290,7 +5290,7 @@
         <v>44591</v>
       </c>
       <c r="B613">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5298,7 +5298,7 @@
         <v>44592</v>
       </c>
       <c r="B614">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5306,7 +5306,7 @@
         <v>44593</v>
       </c>
       <c r="B615">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5314,7 +5314,31 @@
         <v>44594</v>
       </c>
       <c r="B616">
-        <v>70</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B617">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B618">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B619">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B619"/>
+  <dimension ref="A1:B620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5322,7 +5322,7 @@
         <v>44595</v>
       </c>
       <c r="B617">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5338,7 +5338,15 @@
         <v>44597</v>
       </c>
       <c r="B619">
-        <v>38</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B620">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B620"/>
+  <dimension ref="A1:B621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5322,7 +5322,7 @@
         <v>44595</v>
       </c>
       <c r="B617">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5330,7 +5330,7 @@
         <v>44596</v>
       </c>
       <c r="B618">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5338,7 +5338,7 @@
         <v>44597</v>
       </c>
       <c r="B619">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5346,7 +5346,15 @@
         <v>44598</v>
       </c>
       <c r="B620">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B621">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B621"/>
+  <dimension ref="A1:B622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5298,7 +5298,7 @@
         <v>44592</v>
       </c>
       <c r="B614">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5322,7 +5322,7 @@
         <v>44595</v>
       </c>
       <c r="B617">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5354,7 +5354,15 @@
         <v>44599</v>
       </c>
       <c r="B621">
-        <v>28</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B622">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B622"/>
+  <dimension ref="A1:B623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5362,7 +5362,15 @@
         <v>44600</v>
       </c>
       <c r="B622">
-        <v>30</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B623">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B623"/>
+  <dimension ref="A1:B604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -890,7 +890,7 @@
         <v>43993</v>
       </c>
       <c r="B63">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43994</v>
       </c>
       <c r="B64">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2071,239 +2071,239 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B214">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B215">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B216">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B217">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B218">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B219">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B220">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B221">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B222">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B223">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B224">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B225">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B226">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B228">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B229">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B230">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B231">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B232">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B234">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B236">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B237">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B238">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B239">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B240">
         <v>11</v>
@@ -2311,23 +2311,23 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B241">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B242">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B243">
         <v>7</v>
@@ -2335,87 +2335,87 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B244">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B247">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B249">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B251">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B252">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B254">
         <v>16</v>
@@ -2423,103 +2423,103 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B256">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="B257">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B259">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B261">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B262">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B263">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44202</v>
+        <v>44195</v>
       </c>
       <c r="B265">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B266">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="B267">
         <v>4</v>
@@ -2527,47 +2527,47 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="B268">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B271">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B273">
         <v>4</v>
@@ -2575,23 +2575,23 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="B274">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="B275">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="B276">
         <v>6</v>
@@ -2599,15 +2599,15 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,111 +2615,111 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="B279">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B280">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B281">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="B283">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="B284">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="B285">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="B287">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="B288">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="B290">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="B291">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="B292">
         <v>10</v>
@@ -2727,703 +2727,703 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="B293">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="B294">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="B295">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="B296">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="B297">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="B299">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="B300">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="B301">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44240</v>
+        <v>44238</v>
       </c>
       <c r="B302">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44241</v>
+        <v>44239</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44242</v>
+        <v>44240</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="B305">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c r="B306">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44245</v>
+        <v>44243</v>
       </c>
       <c r="B307">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44246</v>
+        <v>44244</v>
       </c>
       <c r="B308">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44247</v>
+        <v>44245</v>
       </c>
       <c r="B309">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44248</v>
+        <v>44246</v>
       </c>
       <c r="B310">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44249</v>
+        <v>44247</v>
       </c>
       <c r="B311">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44250</v>
+        <v>44248</v>
       </c>
       <c r="B312">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="B313">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="B314">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44253</v>
+        <v>44251</v>
       </c>
       <c r="B315">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44254</v>
+        <v>44252</v>
       </c>
       <c r="B316">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44255</v>
+        <v>44253</v>
       </c>
       <c r="B317">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44256</v>
+        <v>44254</v>
       </c>
       <c r="B318">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44257</v>
+        <v>44255</v>
       </c>
       <c r="B319">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44258</v>
+        <v>44256</v>
       </c>
       <c r="B320">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44259</v>
+        <v>44257</v>
       </c>
       <c r="B321">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44260</v>
+        <v>44258</v>
       </c>
       <c r="B322">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44261</v>
+        <v>44259</v>
       </c>
       <c r="B323">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44262</v>
+        <v>44260</v>
       </c>
       <c r="B324">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44263</v>
+        <v>44261</v>
       </c>
       <c r="B325">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="B326">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44265</v>
+        <v>44263</v>
       </c>
       <c r="B327">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44266</v>
+        <v>44264</v>
       </c>
       <c r="B328">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44267</v>
+        <v>44265</v>
       </c>
       <c r="B329">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44268</v>
+        <v>44266</v>
       </c>
       <c r="B330">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44269</v>
+        <v>44267</v>
       </c>
       <c r="B331">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44270</v>
+        <v>44268</v>
       </c>
       <c r="B332">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44271</v>
+        <v>44269</v>
       </c>
       <c r="B333">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="B334">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44273</v>
+        <v>44271</v>
       </c>
       <c r="B335">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44274</v>
+        <v>44272</v>
       </c>
       <c r="B336">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44275</v>
+        <v>44273</v>
       </c>
       <c r="B337">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44276</v>
+        <v>44274</v>
       </c>
       <c r="B338">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44277</v>
+        <v>44275</v>
       </c>
       <c r="B339">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="B340">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="B341">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44280</v>
+        <v>44278</v>
       </c>
       <c r="B342">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44281</v>
+        <v>44279</v>
       </c>
       <c r="B343">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44282</v>
+        <v>44280</v>
       </c>
       <c r="B344">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44283</v>
+        <v>44281</v>
       </c>
       <c r="B345">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44284</v>
+        <v>44282</v>
       </c>
       <c r="B346">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44285</v>
+        <v>44283</v>
       </c>
       <c r="B347">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44286</v>
+        <v>44284</v>
       </c>
       <c r="B348">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44287</v>
+        <v>44285</v>
       </c>
       <c r="B349">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44288</v>
+        <v>44286</v>
       </c>
       <c r="B350">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44289</v>
+        <v>44287</v>
       </c>
       <c r="B351">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44290</v>
+        <v>44288</v>
       </c>
       <c r="B352">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44291</v>
+        <v>44289</v>
       </c>
       <c r="B353">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44292</v>
+        <v>44290</v>
       </c>
       <c r="B354">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44293</v>
+        <v>44291</v>
       </c>
       <c r="B355">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="B356">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44295</v>
+        <v>44293</v>
       </c>
       <c r="B357">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44296</v>
+        <v>44294</v>
       </c>
       <c r="B358">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44297</v>
+        <v>44295</v>
       </c>
       <c r="B359">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44298</v>
+        <v>44296</v>
       </c>
       <c r="B360">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44299</v>
+        <v>44297</v>
       </c>
       <c r="B361">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="B362">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44301</v>
+        <v>44299</v>
       </c>
       <c r="B363">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44302</v>
+        <v>44300</v>
       </c>
       <c r="B364">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44303</v>
+        <v>44301</v>
       </c>
       <c r="B365">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44304</v>
+        <v>44302</v>
       </c>
       <c r="B366">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44305</v>
+        <v>44303</v>
       </c>
       <c r="B367">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44306</v>
+        <v>44304</v>
       </c>
       <c r="B368">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44307</v>
+        <v>44305</v>
       </c>
       <c r="B369">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="B370">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="B371">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44310</v>
+        <v>44308</v>
       </c>
       <c r="B372">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44311</v>
+        <v>44309</v>
       </c>
       <c r="B373">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44312</v>
+        <v>44310</v>
       </c>
       <c r="B374">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44313</v>
+        <v>44311</v>
       </c>
       <c r="B375">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44314</v>
+        <v>44312</v>
       </c>
       <c r="B376">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="B377">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44316</v>
+        <v>44314</v>
       </c>
       <c r="B378">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44317</v>
+        <v>44315</v>
       </c>
       <c r="B379">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44318</v>
+        <v>44316</v>
       </c>
       <c r="B380">
         <v>8</v>
@@ -3431,111 +3431,111 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44319</v>
+        <v>44317</v>
       </c>
       <c r="B381">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44320</v>
+        <v>44318</v>
       </c>
       <c r="B382">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44321</v>
+        <v>44319</v>
       </c>
       <c r="B383">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44322</v>
+        <v>44320</v>
       </c>
       <c r="B384">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44323</v>
+        <v>44321</v>
       </c>
       <c r="B385">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44324</v>
+        <v>44322</v>
       </c>
       <c r="B386">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44325</v>
+        <v>44323</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44326</v>
+        <v>44324</v>
       </c>
       <c r="B388">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44327</v>
+        <v>44325</v>
       </c>
       <c r="B389">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44328</v>
+        <v>44326</v>
       </c>
       <c r="B390">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44329</v>
+        <v>44327</v>
       </c>
       <c r="B391">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B392">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44331</v>
+        <v>44329</v>
       </c>
       <c r="B393">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44332</v>
+        <v>44330</v>
       </c>
       <c r="B394">
         <v>9</v>
@@ -3543,23 +3543,23 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44333</v>
+        <v>44331</v>
       </c>
       <c r="B395">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44334</v>
+        <v>44332</v>
       </c>
       <c r="B396">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44335</v>
+        <v>44333</v>
       </c>
       <c r="B397">
         <v>15</v>
@@ -3567,135 +3567,135 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B398">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44337</v>
+        <v>44335</v>
       </c>
       <c r="B399">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44338</v>
+        <v>44336</v>
       </c>
       <c r="B400">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B401">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44340</v>
+        <v>44338</v>
       </c>
       <c r="B402">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44341</v>
+        <v>44339</v>
       </c>
       <c r="B403">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="B404">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44343</v>
+        <v>44341</v>
       </c>
       <c r="B405">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44344</v>
+        <v>44342</v>
       </c>
       <c r="B406">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44345</v>
+        <v>44343</v>
       </c>
       <c r="B407">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44346</v>
+        <v>44344</v>
       </c>
       <c r="B408">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44347</v>
+        <v>44345</v>
       </c>
       <c r="B409">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B410">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44349</v>
+        <v>44347</v>
       </c>
       <c r="B411">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B412">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B413">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44352</v>
+        <v>44350</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44353</v>
+        <v>44351</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>44354</v>
       </c>
       <c r="B416">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>44355</v>
       </c>
       <c r="B417">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,60 +3730,60 @@
         <v>44356</v>
       </c>
       <c r="B418">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B419">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B420">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44359</v>
+        <v>44361</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="B422">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="B423">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="B424">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B425">
         <v>3</v>
@@ -3791,183 +3791,183 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="B426">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="B427">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44366</v>
+        <v>44369</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44367</v>
+        <v>44373</v>
       </c>
       <c r="B429">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44368</v>
+        <v>44374</v>
       </c>
       <c r="B430">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44369</v>
+        <v>44375</v>
       </c>
       <c r="B431">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44370</v>
+        <v>44376</v>
       </c>
       <c r="B432">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44371</v>
+        <v>44377</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44372</v>
+        <v>44378</v>
       </c>
       <c r="B434">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44373</v>
+        <v>44379</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44374</v>
+        <v>44380</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44375</v>
+        <v>44382</v>
       </c>
       <c r="B437">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="B438">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="B439">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44378</v>
+        <v>44385</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44379</v>
+        <v>44386</v>
       </c>
       <c r="B441">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44380</v>
+        <v>44387</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44381</v>
+        <v>44388</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="B444">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="B445">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="B446">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="B447">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="B448">
         <v>7</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44387</v>
+        <v>44394</v>
       </c>
       <c r="B449">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44388</v>
+        <v>44396</v>
       </c>
       <c r="B450">
         <v>3</v>
@@ -3991,103 +3991,103 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44389</v>
+        <v>44397</v>
       </c>
       <c r="B451">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44390</v>
+        <v>44398</v>
       </c>
       <c r="B452">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44391</v>
+        <v>44400</v>
       </c>
       <c r="B453">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44392</v>
+        <v>44401</v>
       </c>
       <c r="B454">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44393</v>
+        <v>44403</v>
       </c>
       <c r="B455">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44394</v>
+        <v>44404</v>
       </c>
       <c r="B456">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44396</v>
+        <v>44405</v>
       </c>
       <c r="B457">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44397</v>
+        <v>44406</v>
       </c>
       <c r="B458">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44398</v>
+        <v>44407</v>
       </c>
       <c r="B459">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44400</v>
+        <v>44408</v>
       </c>
       <c r="B460">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44401</v>
+        <v>44410</v>
       </c>
       <c r="B461">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44403</v>
+        <v>44412</v>
       </c>
       <c r="B462">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44404</v>
+        <v>44414</v>
       </c>
       <c r="B463">
         <v>3</v>
@@ -4095,47 +4095,47 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44405</v>
+        <v>44415</v>
       </c>
       <c r="B464">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44406</v>
+        <v>44417</v>
       </c>
       <c r="B465">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44407</v>
+        <v>44418</v>
       </c>
       <c r="B466">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44408</v>
+        <v>44420</v>
       </c>
       <c r="B467">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44410</v>
+        <v>44421</v>
       </c>
       <c r="B468">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44411</v>
+        <v>44423</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,71 +4143,71 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44412</v>
+        <v>44424</v>
       </c>
       <c r="B470">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44413</v>
+        <v>44425</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="B472">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44415</v>
+        <v>44428</v>
       </c>
       <c r="B473">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44417</v>
+        <v>44429</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44418</v>
+        <v>44431</v>
       </c>
       <c r="B475">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44420</v>
+        <v>44432</v>
       </c>
       <c r="B476">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44421</v>
+        <v>44433</v>
       </c>
       <c r="B477">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44422</v>
+        <v>44434</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,151 +4215,151 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44423</v>
+        <v>44435</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44424</v>
+        <v>44439</v>
       </c>
       <c r="B480">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44425</v>
+        <v>44440</v>
       </c>
       <c r="B481">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44426</v>
+        <v>44442</v>
       </c>
       <c r="B482">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44427</v>
+        <v>44443</v>
       </c>
       <c r="B483">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44428</v>
+        <v>44446</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44429</v>
+        <v>44447</v>
       </c>
       <c r="B485">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44431</v>
+        <v>44452</v>
       </c>
       <c r="B486">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44432</v>
+        <v>44453</v>
       </c>
       <c r="B487">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44433</v>
+        <v>44454</v>
       </c>
       <c r="B488">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44434</v>
+        <v>44456</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44435</v>
+        <v>44457</v>
       </c>
       <c r="B490">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44439</v>
+        <v>44459</v>
       </c>
       <c r="B491">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44440</v>
+        <v>44461</v>
       </c>
       <c r="B492">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44442</v>
+        <v>44463</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44443</v>
+        <v>44464</v>
       </c>
       <c r="B494">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44445</v>
+        <v>44467</v>
       </c>
       <c r="B495">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44446</v>
+        <v>44468</v>
       </c>
       <c r="B496">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44447</v>
+        <v>44469</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -4367,63 +4367,63 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44451</v>
+        <v>44470</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44452</v>
+        <v>44471</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44453</v>
+        <v>44473</v>
       </c>
       <c r="B500">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44454</v>
+        <v>44474</v>
       </c>
       <c r="B501">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44455</v>
+        <v>44476</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44456</v>
+        <v>44480</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44457</v>
+        <v>44481</v>
       </c>
       <c r="B504">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44459</v>
+        <v>44482</v>
       </c>
       <c r="B505">
         <v>4</v>
@@ -4431,55 +4431,55 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44460</v>
+        <v>44483</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44461</v>
+        <v>44484</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44463</v>
+        <v>44485</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44464</v>
+        <v>44487</v>
       </c>
       <c r="B509">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44467</v>
+        <v>44489</v>
       </c>
       <c r="B511">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44468</v>
+        <v>44490</v>
       </c>
       <c r="B512">
         <v>2</v>
@@ -4487,15 +4487,15 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44469</v>
+        <v>44491</v>
       </c>
       <c r="B513">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44470</v>
+        <v>44492</v>
       </c>
       <c r="B514">
         <v>2</v>
@@ -4503,191 +4503,191 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44471</v>
+        <v>44494</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44473</v>
+        <v>44495</v>
       </c>
       <c r="B516">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44474</v>
+        <v>44496</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44476</v>
+        <v>44497</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44480</v>
+        <v>44498</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44481</v>
+        <v>44501</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44482</v>
+        <v>44504</v>
       </c>
       <c r="B521">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44483</v>
+        <v>44505</v>
       </c>
       <c r="B522">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44484</v>
+        <v>44506</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44485</v>
+        <v>44509</v>
       </c>
       <c r="B524">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44487</v>
+        <v>44510</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44488</v>
+        <v>44511</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44489</v>
+        <v>44512</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44490</v>
+        <v>44515</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44491</v>
+        <v>44516</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44492</v>
+        <v>44517</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44494</v>
+        <v>44518</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44495</v>
+        <v>44520</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44496</v>
+        <v>44522</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44497</v>
+        <v>44524</v>
       </c>
       <c r="B534">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44498</v>
+        <v>44525</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44501</v>
+        <v>44526</v>
       </c>
       <c r="B536">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44503</v>
+        <v>44527</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44504</v>
+        <v>44529</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,71 +4695,71 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44505</v>
+        <v>44530</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44506</v>
+        <v>44532</v>
       </c>
       <c r="B540">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44507</v>
+        <v>44534</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44509</v>
+        <v>44536</v>
       </c>
       <c r="B542">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44510</v>
+        <v>44537</v>
       </c>
       <c r="B543">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44511</v>
+        <v>44538</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44512</v>
+        <v>44540</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44515</v>
+        <v>44541</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44516</v>
+        <v>44543</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -4767,15 +4767,15 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44517</v>
+        <v>44544</v>
       </c>
       <c r="B548">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44518</v>
+        <v>44545</v>
       </c>
       <c r="B549">
         <v>5</v>
@@ -4783,31 +4783,31 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44520</v>
+        <v>44547</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44522</v>
+        <v>44548</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44524</v>
+        <v>44550</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44525</v>
+        <v>44551</v>
       </c>
       <c r="B553">
         <v>3</v>
@@ -4815,31 +4815,31 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44526</v>
+        <v>44552</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44527</v>
+        <v>44553</v>
       </c>
       <c r="B555">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44528</v>
+        <v>44554</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44529</v>
+        <v>44555</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,47 +4847,47 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44530</v>
+        <v>44557</v>
       </c>
       <c r="B558">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44532</v>
+        <v>44558</v>
       </c>
       <c r="B559">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44534</v>
+        <v>44559</v>
       </c>
       <c r="B560">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44536</v>
+        <v>44560</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44537</v>
+        <v>44561</v>
       </c>
       <c r="B562">
-        <v>4</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44538</v>
+        <v>44563</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,482 +4895,330 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44539</v>
+        <v>44564</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44540</v>
+        <v>44565</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44541</v>
+        <v>44566</v>
       </c>
       <c r="B566">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44542</v>
+        <v>44567</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44543</v>
+        <v>44568</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44544</v>
+        <v>44569</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44545</v>
+        <v>44570</v>
       </c>
       <c r="B570">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44547</v>
+        <v>44571</v>
       </c>
       <c r="B571">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44548</v>
+        <v>44572</v>
       </c>
       <c r="B572">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44550</v>
+        <v>44573</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44551</v>
+        <v>44574</v>
       </c>
       <c r="B574">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44552</v>
+        <v>44575</v>
       </c>
       <c r="B575">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44553</v>
+        <v>44576</v>
       </c>
       <c r="B576">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44554</v>
+        <v>44577</v>
       </c>
       <c r="B577">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44555</v>
+        <v>44578</v>
       </c>
       <c r="B578">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44557</v>
+        <v>44579</v>
       </c>
       <c r="B579">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44558</v>
+        <v>44580</v>
       </c>
       <c r="B580">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44559</v>
+        <v>44581</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44560</v>
+        <v>44582</v>
       </c>
       <c r="B582">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44561</v>
+        <v>44583</v>
       </c>
       <c r="B583">
-        <v>9</v>
+        <v>241</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44562</v>
+        <v>44584</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44563</v>
+        <v>44585</v>
       </c>
       <c r="B585">
-        <v>6</v>
+        <v>242</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44564</v>
+        <v>44586</v>
       </c>
       <c r="B586">
-        <v>19</v>
+        <v>313</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44565</v>
+        <v>44587</v>
       </c>
       <c r="B587">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44566</v>
+        <v>44588</v>
       </c>
       <c r="B588">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44567</v>
+        <v>44589</v>
       </c>
       <c r="B589">
-        <v>37</v>
+        <v>106</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44568</v>
+        <v>44590</v>
       </c>
       <c r="B590">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44569</v>
+        <v>44591</v>
       </c>
       <c r="B591">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44570</v>
+        <v>44592</v>
       </c>
       <c r="B592">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44571</v>
+        <v>44593</v>
       </c>
       <c r="B593">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44572</v>
+        <v>44594</v>
       </c>
       <c r="B594">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44573</v>
+        <v>44595</v>
       </c>
       <c r="B595">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44574</v>
+        <v>44596</v>
       </c>
       <c r="B596">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44575</v>
+        <v>44597</v>
       </c>
       <c r="B597">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44576</v>
+        <v>44598</v>
       </c>
       <c r="B598">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44577</v>
+        <v>44599</v>
       </c>
       <c r="B599">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44578</v>
+        <v>44600</v>
       </c>
       <c r="B600">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44579</v>
+        <v>44601</v>
       </c>
       <c r="B601">
-        <v>155</v>
+        <v>59</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44580</v>
+        <v>44602</v>
       </c>
       <c r="B602">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44581</v>
+        <v>44603</v>
       </c>
       <c r="B603">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44582</v>
+        <v>44604</v>
       </c>
       <c r="B604">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2">
-      <c r="A605" s="2">
-        <v>44583</v>
-      </c>
-      <c r="B605">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2">
-      <c r="A606" s="2">
-        <v>44584</v>
-      </c>
-      <c r="B606">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2">
-      <c r="A607" s="2">
-        <v>44585</v>
-      </c>
-      <c r="B607">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2">
-      <c r="A608" s="2">
-        <v>44586</v>
-      </c>
-      <c r="B608">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2">
-      <c r="A609" s="2">
-        <v>44587</v>
-      </c>
-      <c r="B609">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2">
-      <c r="A610" s="2">
-        <v>44588</v>
-      </c>
-      <c r="B610">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2">
-      <c r="A611" s="2">
-        <v>44589</v>
-      </c>
-      <c r="B611">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2">
-      <c r="A612" s="2">
-        <v>44590</v>
-      </c>
-      <c r="B612">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2">
-      <c r="A613" s="2">
-        <v>44591</v>
-      </c>
-      <c r="B613">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2">
-      <c r="A614" s="2">
-        <v>44592</v>
-      </c>
-      <c r="B614">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2">
-      <c r="A615" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B615">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2">
-      <c r="A616" s="2">
-        <v>44594</v>
-      </c>
-      <c r="B616">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2">
-      <c r="A617" s="2">
-        <v>44595</v>
-      </c>
-      <c r="B617">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2">
-      <c r="A618" s="2">
-        <v>44596</v>
-      </c>
-      <c r="B618">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2">
-      <c r="A619" s="2">
-        <v>44597</v>
-      </c>
-      <c r="B619">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2">
-      <c r="A620" s="2">
-        <v>44598</v>
-      </c>
-      <c r="B620">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2">
-      <c r="A621" s="2">
-        <v>44599</v>
-      </c>
-      <c r="B621">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2">
-      <c r="A622" s="2">
-        <v>44600</v>
-      </c>
-      <c r="B622">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2">
-      <c r="A623" s="2">
-        <v>44601</v>
-      </c>
-      <c r="B623">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B604"/>
+  <dimension ref="A1:B606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5194,7 +5194,7 @@
         <v>44601</v>
       </c>
       <c r="B601">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>44603</v>
       </c>
       <c r="B603">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5218,7 +5218,23 @@
         <v>44604</v>
       </c>
       <c r="B604">
-        <v>20</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B605">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B606">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B606"/>
+  <dimension ref="A1:B607"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4978,7 +4978,7 @@
         <v>44574</v>
       </c>
       <c r="B574">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -5234,7 +5234,15 @@
         <v>44606</v>
       </c>
       <c r="B606">
-        <v>21</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B607">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B630"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -890,7 +890,7 @@
         <v>43993</v>
       </c>
       <c r="B63">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43994</v>
       </c>
       <c r="B64">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2071,239 +2071,239 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B213">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B215">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B216">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B217">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B218">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="B219">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B221">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B222">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B223">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B224">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B225">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B226">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B229">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B230">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="B231">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B232">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B233">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B235">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="B237">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="B238">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B239">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44170</v>
+        <v>44172</v>
       </c>
       <c r="B240">
         <v>11</v>
@@ -2311,23 +2311,23 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B241">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B242">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="B243">
         <v>7</v>
@@ -2335,87 +2335,87 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44174</v>
+        <v>44176</v>
       </c>
       <c r="B244">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B245">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44176</v>
+        <v>44178</v>
       </c>
       <c r="B246">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44177</v>
+        <v>44179</v>
       </c>
       <c r="B247">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44178</v>
+        <v>44180</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B249">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="B250">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B251">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="B252">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B253">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44184</v>
+        <v>44186</v>
       </c>
       <c r="B254">
         <v>16</v>
@@ -2423,103 +2423,103 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="B256">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="B257">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B258">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="B259">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44191</v>
+        <v>44193</v>
       </c>
       <c r="B261">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44193</v>
+        <v>44195</v>
       </c>
       <c r="B263">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44194</v>
+        <v>44201</v>
       </c>
       <c r="B264">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44195</v>
+        <v>44202</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B267">
         <v>4</v>
@@ -2527,47 +2527,47 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44203</v>
+        <v>44205</v>
       </c>
       <c r="B268">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44205</v>
+        <v>44208</v>
       </c>
       <c r="B270">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B273">
         <v>4</v>
@@ -2575,23 +2575,23 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44210</v>
+        <v>44212</v>
       </c>
       <c r="B274">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44211</v>
+        <v>44213</v>
       </c>
       <c r="B275">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44212</v>
+        <v>44214</v>
       </c>
       <c r="B276">
         <v>6</v>
@@ -2599,15 +2599,15 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B277">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,111 +2615,111 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B280">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44218</v>
+        <v>44220</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44220</v>
+        <v>44222</v>
       </c>
       <c r="B284">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="B285">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44223</v>
+        <v>44225</v>
       </c>
       <c r="B287">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44224</v>
+        <v>44226</v>
       </c>
       <c r="B288">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44225</v>
+        <v>44227</v>
       </c>
       <c r="B289">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44226</v>
+        <v>44228</v>
       </c>
       <c r="B290">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44227</v>
+        <v>44229</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44228</v>
+        <v>44230</v>
       </c>
       <c r="B292">
         <v>10</v>
@@ -2727,703 +2727,703 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44229</v>
+        <v>44231</v>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44230</v>
+        <v>44232</v>
       </c>
       <c r="B294">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44231</v>
+        <v>44233</v>
       </c>
       <c r="B295">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44232</v>
+        <v>44234</v>
       </c>
       <c r="B296">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44233</v>
+        <v>44235</v>
       </c>
       <c r="B297">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44234</v>
+        <v>44236</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44235</v>
+        <v>44237</v>
       </c>
       <c r="B299">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44237</v>
+        <v>44239</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44238</v>
+        <v>44240</v>
       </c>
       <c r="B302">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44239</v>
+        <v>44241</v>
       </c>
       <c r="B303">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44240</v>
+        <v>44242</v>
       </c>
       <c r="B304">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="B305">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="B307">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44244</v>
+        <v>44246</v>
       </c>
       <c r="B308">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44245</v>
+        <v>44247</v>
       </c>
       <c r="B309">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44246</v>
+        <v>44248</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44247</v>
+        <v>44249</v>
       </c>
       <c r="B311">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44248</v>
+        <v>44250</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="B313">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="B314">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44251</v>
+        <v>44253</v>
       </c>
       <c r="B315">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="B316">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44253</v>
+        <v>44255</v>
       </c>
       <c r="B317">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44254</v>
+        <v>44256</v>
       </c>
       <c r="B318">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44255</v>
+        <v>44257</v>
       </c>
       <c r="B319">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B320">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44257</v>
+        <v>44259</v>
       </c>
       <c r="B321">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44258</v>
+        <v>44260</v>
       </c>
       <c r="B322">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44259</v>
+        <v>44261</v>
       </c>
       <c r="B323">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44260</v>
+        <v>44262</v>
       </c>
       <c r="B324">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B325">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44262</v>
+        <v>44264</v>
       </c>
       <c r="B326">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44263</v>
+        <v>44265</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="B328">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B329">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44266</v>
+        <v>44268</v>
       </c>
       <c r="B330">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44267</v>
+        <v>44269</v>
       </c>
       <c r="B331">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44268</v>
+        <v>44270</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44269</v>
+        <v>44271</v>
       </c>
       <c r="B333">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B334">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44271</v>
+        <v>44273</v>
       </c>
       <c r="B335">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="B336">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44273</v>
+        <v>44275</v>
       </c>
       <c r="B337">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44274</v>
+        <v>44276</v>
       </c>
       <c r="B338">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44275</v>
+        <v>44277</v>
       </c>
       <c r="B339">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44276</v>
+        <v>44278</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="B341">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44278</v>
+        <v>44280</v>
       </c>
       <c r="B342">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44279</v>
+        <v>44281</v>
       </c>
       <c r="B343">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44280</v>
+        <v>44282</v>
       </c>
       <c r="B344">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44281</v>
+        <v>44283</v>
       </c>
       <c r="B345">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44282</v>
+        <v>44284</v>
       </c>
       <c r="B346">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44283</v>
+        <v>44285</v>
       </c>
       <c r="B347">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44284</v>
+        <v>44286</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44285</v>
+        <v>44287</v>
       </c>
       <c r="B349">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44286</v>
+        <v>44288</v>
       </c>
       <c r="B350">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44287</v>
+        <v>44289</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44288</v>
+        <v>44290</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44289</v>
+        <v>44291</v>
       </c>
       <c r="B353">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="B354">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44291</v>
+        <v>44293</v>
       </c>
       <c r="B355">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44292</v>
+        <v>44294</v>
       </c>
       <c r="B356">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44293</v>
+        <v>44295</v>
       </c>
       <c r="B357">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44294</v>
+        <v>44296</v>
       </c>
       <c r="B358">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44295</v>
+        <v>44297</v>
       </c>
       <c r="B359">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44296</v>
+        <v>44298</v>
       </c>
       <c r="B360">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44297</v>
+        <v>44299</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44298</v>
+        <v>44300</v>
       </c>
       <c r="B362">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44299</v>
+        <v>44301</v>
       </c>
       <c r="B363">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44300</v>
+        <v>44302</v>
       </c>
       <c r="B364">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44301</v>
+        <v>44303</v>
       </c>
       <c r="B365">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44302</v>
+        <v>44304</v>
       </c>
       <c r="B366">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44303</v>
+        <v>44305</v>
       </c>
       <c r="B367">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44304</v>
+        <v>44306</v>
       </c>
       <c r="B368">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44305</v>
+        <v>44307</v>
       </c>
       <c r="B369">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44306</v>
+        <v>44308</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44307</v>
+        <v>44309</v>
       </c>
       <c r="B371">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44308</v>
+        <v>44310</v>
       </c>
       <c r="B372">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44309</v>
+        <v>44311</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44310</v>
+        <v>44312</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44311</v>
+        <v>44313</v>
       </c>
       <c r="B375">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44312</v>
+        <v>44314</v>
       </c>
       <c r="B376">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44314</v>
+        <v>44316</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44315</v>
+        <v>44317</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44316</v>
+        <v>44318</v>
       </c>
       <c r="B380">
         <v>8</v>
@@ -3431,111 +3431,111 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44317</v>
+        <v>44319</v>
       </c>
       <c r="B381">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44318</v>
+        <v>44320</v>
       </c>
       <c r="B382">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44319</v>
+        <v>44321</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44320</v>
+        <v>44322</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44321</v>
+        <v>44323</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44322</v>
+        <v>44324</v>
       </c>
       <c r="B386">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44323</v>
+        <v>44325</v>
       </c>
       <c r="B387">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44324</v>
+        <v>44326</v>
       </c>
       <c r="B388">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="B390">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="B391">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="B392">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="B393">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44330</v>
+        <v>44332</v>
       </c>
       <c r="B394">
         <v>9</v>
@@ -3543,23 +3543,23 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44331</v>
+        <v>44333</v>
       </c>
       <c r="B395">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44332</v>
+        <v>44334</v>
       </c>
       <c r="B396">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="B397">
         <v>15</v>
@@ -3567,135 +3567,135 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="B398">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44335</v>
+        <v>44337</v>
       </c>
       <c r="B399">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44336</v>
+        <v>44338</v>
       </c>
       <c r="B400">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B401">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44338</v>
+        <v>44340</v>
       </c>
       <c r="B402">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44339</v>
+        <v>44341</v>
       </c>
       <c r="B403">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="B404">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44341</v>
+        <v>44343</v>
       </c>
       <c r="B405">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="B406">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44343</v>
+        <v>44345</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44344</v>
+        <v>44346</v>
       </c>
       <c r="B408">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44345</v>
+        <v>44347</v>
       </c>
       <c r="B409">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44346</v>
+        <v>44348</v>
       </c>
       <c r="B410">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44347</v>
+        <v>44349</v>
       </c>
       <c r="B411">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44349</v>
+        <v>44351</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44350</v>
+        <v>44352</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44351</v>
+        <v>44353</v>
       </c>
       <c r="B415">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>44354</v>
       </c>
       <c r="B416">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>44355</v>
       </c>
       <c r="B417">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,60 +3730,60 @@
         <v>44356</v>
       </c>
       <c r="B418">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44361</v>
+        <v>44359</v>
       </c>
       <c r="B421">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44362</v>
+        <v>44360</v>
       </c>
       <c r="B422">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44364</v>
+        <v>44362</v>
       </c>
       <c r="B424">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B425">
         <v>3</v>
@@ -3791,183 +3791,183 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44367</v>
+        <v>44364</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44368</v>
+        <v>44365</v>
       </c>
       <c r="B427">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44369</v>
+        <v>44366</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44373</v>
+        <v>44367</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44374</v>
+        <v>44368</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44375</v>
+        <v>44369</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44376</v>
+        <v>44370</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44377</v>
+        <v>44371</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44378</v>
+        <v>44372</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44379</v>
+        <v>44373</v>
       </c>
       <c r="B435">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44380</v>
+        <v>44374</v>
       </c>
       <c r="B436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44382</v>
+        <v>44375</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44383</v>
+        <v>44376</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44384</v>
+        <v>44377</v>
       </c>
       <c r="B439">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44385</v>
+        <v>44378</v>
       </c>
       <c r="B440">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44386</v>
+        <v>44379</v>
       </c>
       <c r="B441">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44387</v>
+        <v>44380</v>
       </c>
       <c r="B442">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44388</v>
+        <v>44381</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44390</v>
+        <v>44383</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44391</v>
+        <v>44384</v>
       </c>
       <c r="B446">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44392</v>
+        <v>44385</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44393</v>
+        <v>44386</v>
       </c>
       <c r="B448">
         <v>7</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44394</v>
+        <v>44387</v>
       </c>
       <c r="B449">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44396</v>
+        <v>44388</v>
       </c>
       <c r="B450">
         <v>3</v>
@@ -3991,103 +3991,103 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44397</v>
+        <v>44389</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44398</v>
+        <v>44390</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44400</v>
+        <v>44391</v>
       </c>
       <c r="B453">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44401</v>
+        <v>44392</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44403</v>
+        <v>44393</v>
       </c>
       <c r="B455">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44404</v>
+        <v>44394</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44405</v>
+        <v>44396</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44406</v>
+        <v>44397</v>
       </c>
       <c r="B458">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44407</v>
+        <v>44398</v>
       </c>
       <c r="B459">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44408</v>
+        <v>44400</v>
       </c>
       <c r="B460">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44410</v>
+        <v>44401</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44412</v>
+        <v>44403</v>
       </c>
       <c r="B462">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44414</v>
+        <v>44404</v>
       </c>
       <c r="B463">
         <v>3</v>
@@ -4095,47 +4095,47 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44415</v>
+        <v>44405</v>
       </c>
       <c r="B464">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44417</v>
+        <v>44406</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44418</v>
+        <v>44407</v>
       </c>
       <c r="B466">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44420</v>
+        <v>44408</v>
       </c>
       <c r="B467">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44421</v>
+        <v>44410</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44423</v>
+        <v>44411</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,71 +4143,71 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44424</v>
+        <v>44412</v>
       </c>
       <c r="B470">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44425</v>
+        <v>44413</v>
       </c>
       <c r="B471">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44428</v>
+        <v>44415</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44429</v>
+        <v>44417</v>
       </c>
       <c r="B474">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44431</v>
+        <v>44418</v>
       </c>
       <c r="B475">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44432</v>
+        <v>44420</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44433</v>
+        <v>44421</v>
       </c>
       <c r="B477">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44434</v>
+        <v>44422</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,151 +4215,151 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44435</v>
+        <v>44423</v>
       </c>
       <c r="B479">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44439</v>
+        <v>44424</v>
       </c>
       <c r="B480">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44440</v>
+        <v>44425</v>
       </c>
       <c r="B481">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44442</v>
+        <v>44426</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44443</v>
+        <v>44427</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44446</v>
+        <v>44428</v>
       </c>
       <c r="B484">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44447</v>
+        <v>44429</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44452</v>
+        <v>44431</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44453</v>
+        <v>44432</v>
       </c>
       <c r="B487">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="B488">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44456</v>
+        <v>44434</v>
       </c>
       <c r="B489">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44457</v>
+        <v>44435</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44459</v>
+        <v>44439</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44461</v>
+        <v>44440</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44463</v>
+        <v>44442</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44464</v>
+        <v>44443</v>
       </c>
       <c r="B494">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44467</v>
+        <v>44445</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44468</v>
+        <v>44446</v>
       </c>
       <c r="B496">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44469</v>
+        <v>44447</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -4367,63 +4367,63 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44470</v>
+        <v>44451</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44471</v>
+        <v>44452</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44473</v>
+        <v>44453</v>
       </c>
       <c r="B500">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44474</v>
+        <v>44454</v>
       </c>
       <c r="B501">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44476</v>
+        <v>44455</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44480</v>
+        <v>44456</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44481</v>
+        <v>44457</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44482</v>
+        <v>44459</v>
       </c>
       <c r="B505">
         <v>4</v>
@@ -4431,55 +4431,55 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44483</v>
+        <v>44460</v>
       </c>
       <c r="B506">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44484</v>
+        <v>44461</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44485</v>
+        <v>44463</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44487</v>
+        <v>44464</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44489</v>
+        <v>44467</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44490</v>
+        <v>44468</v>
       </c>
       <c r="B512">
         <v>2</v>
@@ -4487,15 +4487,15 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44491</v>
+        <v>44469</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44492</v>
+        <v>44470</v>
       </c>
       <c r="B514">
         <v>2</v>
@@ -4503,191 +4503,191 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44494</v>
+        <v>44471</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44495</v>
+        <v>44473</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44496</v>
+        <v>44474</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44497</v>
+        <v>44476</v>
       </c>
       <c r="B518">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44498</v>
+        <v>44480</v>
       </c>
       <c r="B519">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44501</v>
+        <v>44481</v>
       </c>
       <c r="B520">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44504</v>
+        <v>44482</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44505</v>
+        <v>44483</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44506</v>
+        <v>44484</v>
       </c>
       <c r="B523">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44509</v>
+        <v>44485</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44510</v>
+        <v>44487</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="B526">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44512</v>
+        <v>44489</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44515</v>
+        <v>44490</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44516</v>
+        <v>44491</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44517</v>
+        <v>44492</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44518</v>
+        <v>44494</v>
       </c>
       <c r="B531">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44520</v>
+        <v>44495</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44522</v>
+        <v>44496</v>
       </c>
       <c r="B533">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44524</v>
+        <v>44497</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44525</v>
+        <v>44498</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44526</v>
+        <v>44501</v>
       </c>
       <c r="B536">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44527</v>
+        <v>44503</v>
       </c>
       <c r="B537">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44529</v>
+        <v>44504</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,71 +4695,71 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44530</v>
+        <v>44505</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44532</v>
+        <v>44506</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44534</v>
+        <v>44507</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44536</v>
+        <v>44509</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44537</v>
+        <v>44510</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44538</v>
+        <v>44511</v>
       </c>
       <c r="B544">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44540</v>
+        <v>44512</v>
       </c>
       <c r="B545">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44541</v>
+        <v>44515</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44543</v>
+        <v>44516</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -4767,15 +4767,15 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44544</v>
+        <v>44517</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44545</v>
+        <v>44518</v>
       </c>
       <c r="B549">
         <v>5</v>
@@ -4783,31 +4783,31 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44547</v>
+        <v>44520</v>
       </c>
       <c r="B550">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44548</v>
+        <v>44522</v>
       </c>
       <c r="B551">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44550</v>
+        <v>44524</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44551</v>
+        <v>44525</v>
       </c>
       <c r="B553">
         <v>3</v>
@@ -4815,31 +4815,31 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44552</v>
+        <v>44526</v>
       </c>
       <c r="B554">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44553</v>
+        <v>44527</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44554</v>
+        <v>44528</v>
       </c>
       <c r="B556">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44555</v>
+        <v>44529</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,47 +4847,47 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44557</v>
+        <v>44530</v>
       </c>
       <c r="B558">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44558</v>
+        <v>44532</v>
       </c>
       <c r="B559">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44559</v>
+        <v>44534</v>
       </c>
       <c r="B560">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44560</v>
+        <v>44536</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44561</v>
+        <v>44537</v>
       </c>
       <c r="B562">
-        <v>2929</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44563</v>
+        <v>44538</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,354 +4895,538 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44564</v>
+        <v>44539</v>
       </c>
       <c r="B564">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44565</v>
+        <v>44540</v>
       </c>
       <c r="B565">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44566</v>
+        <v>44541</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44567</v>
+        <v>44542</v>
       </c>
       <c r="B567">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44568</v>
+        <v>44543</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44569</v>
+        <v>44544</v>
       </c>
       <c r="B569">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44570</v>
+        <v>44545</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44571</v>
+        <v>44547</v>
       </c>
       <c r="B571">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44572</v>
+        <v>44548</v>
       </c>
       <c r="B572">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44573</v>
+        <v>44550</v>
       </c>
       <c r="B573">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44574</v>
+        <v>44551</v>
       </c>
       <c r="B574">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44575</v>
+        <v>44552</v>
       </c>
       <c r="B575">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44576</v>
+        <v>44553</v>
       </c>
       <c r="B576">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44577</v>
+        <v>44554</v>
       </c>
       <c r="B577">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44578</v>
+        <v>44555</v>
       </c>
       <c r="B578">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44579</v>
+        <v>44557</v>
       </c>
       <c r="B579">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44580</v>
+        <v>44558</v>
       </c>
       <c r="B580">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44581</v>
+        <v>44559</v>
       </c>
       <c r="B581">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44582</v>
+        <v>44560</v>
       </c>
       <c r="B582">
-        <v>196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44583</v>
+        <v>44561</v>
       </c>
       <c r="B583">
-        <v>241</v>
+        <v>9</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44584</v>
+        <v>44562</v>
       </c>
       <c r="B584">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44585</v>
+        <v>44563</v>
       </c>
       <c r="B585">
-        <v>242</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44586</v>
+        <v>44564</v>
       </c>
       <c r="B586">
-        <v>313</v>
+        <v>19</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44587</v>
+        <v>44565</v>
       </c>
       <c r="B587">
-        <v>161</v>
+        <v>17</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44588</v>
+        <v>44566</v>
       </c>
       <c r="B588">
-        <v>148</v>
+        <v>13</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44589</v>
+        <v>44567</v>
       </c>
       <c r="B589">
-        <v>106</v>
+        <v>37</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44590</v>
+        <v>44568</v>
       </c>
       <c r="B590">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44591</v>
+        <v>44569</v>
       </c>
       <c r="B591">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44592</v>
+        <v>44570</v>
       </c>
       <c r="B592">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44593</v>
+        <v>44571</v>
       </c>
       <c r="B593">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44594</v>
+        <v>44572</v>
       </c>
       <c r="B594">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44595</v>
+        <v>44573</v>
       </c>
       <c r="B595">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44596</v>
+        <v>44574</v>
       </c>
       <c r="B596">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44597</v>
+        <v>44575</v>
       </c>
       <c r="B597">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44598</v>
+        <v>44576</v>
       </c>
       <c r="B598">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44599</v>
+        <v>44577</v>
       </c>
       <c r="B599">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44600</v>
+        <v>44578</v>
       </c>
       <c r="B600">
-        <v>34</v>
+        <v>128</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44601</v>
+        <v>44579</v>
       </c>
       <c r="B601">
-        <v>60</v>
+        <v>158</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44602</v>
+        <v>44580</v>
       </c>
       <c r="B602">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44603</v>
+        <v>44581</v>
       </c>
       <c r="B603">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44604</v>
+        <v>44582</v>
       </c>
       <c r="B604">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44605</v>
+        <v>44583</v>
       </c>
       <c r="B605">
-        <v>4</v>
+        <v>241</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44606</v>
+        <v>44584</v>
       </c>
       <c r="B606">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B607">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B608">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B609">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B610">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B611">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B612">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B613">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B614">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B615">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B616">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B617">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B618">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B619">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B620">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B621">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B622">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B623">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B624">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B625">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B626">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B627">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B628">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="2">
         <v>44607</v>
       </c>
-      <c r="B607">
-        <v>14</v>
+      <c r="B629">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B630">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B630"/>
+  <dimension ref="A1:B631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5202,7 +5202,7 @@
         <v>44580</v>
       </c>
       <c r="B602">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5426,7 +5426,15 @@
         <v>44608</v>
       </c>
       <c r="B630">
-        <v>25</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B631">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B631"/>
+  <dimension ref="A1:B633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5130,7 +5130,7 @@
         <v>44571</v>
       </c>
       <c r="B593">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>44577</v>
       </c>
       <c r="B599">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>44578</v>
       </c>
       <c r="B600">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>44583</v>
       </c>
       <c r="B605">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>44585</v>
       </c>
       <c r="B607">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5274,7 +5274,7 @@
         <v>44589</v>
       </c>
       <c r="B611">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5282,7 +5282,7 @@
         <v>44590</v>
       </c>
       <c r="B612">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5298,7 +5298,7 @@
         <v>44592</v>
       </c>
       <c r="B614">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5314,7 +5314,7 @@
         <v>44594</v>
       </c>
       <c r="B616">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5378,7 +5378,7 @@
         <v>44602</v>
       </c>
       <c r="B624">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5386,7 +5386,7 @@
         <v>44603</v>
       </c>
       <c r="B625">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5394,7 +5394,7 @@
         <v>44604</v>
       </c>
       <c r="B626">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5426,7 +5426,7 @@
         <v>44608</v>
       </c>
       <c r="B630">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5434,7 +5434,23 @@
         <v>44609</v>
       </c>
       <c r="B631">
-        <v>18</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B632">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B633">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -5450,7 +5450,7 @@
         <v>44611</v>
       </c>
       <c r="B633">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B633"/>
+  <dimension ref="A1:B634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5453,6 +5453,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B634">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B634"/>
+  <dimension ref="A1:B639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5458,6 +5458,46 @@
         <v>44613</v>
       </c>
       <c r="B634">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B635">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B636">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B637">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B638">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B639">
         <v>6</v>
       </c>
     </row>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -5298,7 +5298,7 @@
         <v>44592</v>
       </c>
       <c r="B614">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="615" spans="1:2">

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B639"/>
+  <dimension ref="A1:B641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5210,7 +5210,7 @@
         <v>44581</v>
       </c>
       <c r="B603">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5498,7 +5498,23 @@
         <v>44618</v>
       </c>
       <c r="B639">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B640">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B641">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B641"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5517,6 +5517,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B642">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B643">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5530,7 +5530,23 @@
         <v>44623</v>
       </c>
       <c r="B643">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B644">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B645">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B645"/>
+  <dimension ref="A1:B647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5549,6 +5549,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B646">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B647">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B647"/>
+  <dimension ref="A1:B648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5565,6 +5565,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2">
+        <v>44629</v>
+      </c>
+      <c r="B648">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B648"/>
+  <dimension ref="A1:B656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5258,7 +5258,7 @@
         <v>44587</v>
       </c>
       <c r="B609">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5274,7 +5274,7 @@
         <v>44589</v>
       </c>
       <c r="B611">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5282,7 +5282,7 @@
         <v>44590</v>
       </c>
       <c r="B612">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5290,7 +5290,7 @@
         <v>44591</v>
       </c>
       <c r="B613">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5298,7 +5298,7 @@
         <v>44592</v>
       </c>
       <c r="B614">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5306,7 +5306,7 @@
         <v>44593</v>
       </c>
       <c r="B615">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5386,7 +5386,7 @@
         <v>44603</v>
       </c>
       <c r="B625">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5394,7 +5394,7 @@
         <v>44604</v>
       </c>
       <c r="B626">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5570,7 +5570,71 @@
         <v>44629</v>
       </c>
       <c r="B648">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B649">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B650">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2">
+        <v>44632</v>
+      </c>
+      <c r="B651">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B652">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B653">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B654">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2">
+        <v>44637</v>
+      </c>
+      <c r="B655">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2">
+        <v>44638</v>
+      </c>
+      <c r="B656">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B656"/>
+  <dimension ref="A1:B664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5330,7 +5330,7 @@
         <v>44596</v>
       </c>
       <c r="B618">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5338,7 +5338,7 @@
         <v>44597</v>
       </c>
       <c r="B619">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5346,7 +5346,7 @@
         <v>44598</v>
       </c>
       <c r="B620">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5354,7 +5354,7 @@
         <v>44599</v>
       </c>
       <c r="B621">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5635,6 +5635,70 @@
       </c>
       <c r="B656">
         <v>3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2">
+        <v>44639</v>
+      </c>
+      <c r="B657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2">
+        <v>44641</v>
+      </c>
+      <c r="B658">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>44642</v>
+      </c>
+      <c r="B659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>44644</v>
+      </c>
+      <c r="B661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>44646</v>
+      </c>
+      <c r="B663">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
+        <v>44648</v>
+      </c>
+      <c r="B664">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B664"/>
+  <dimension ref="A1:B667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5698,6 +5698,30 @@
         <v>44648</v>
       </c>
       <c r="B664">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>44649</v>
+      </c>
+      <c r="B665">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B666">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B667">
         <v>1</v>
       </c>
     </row>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B667"/>
+  <dimension ref="A1:B669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5725,6 +5725,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B669">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B669"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5741,6 +5741,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2">
+        <v>44657</v>
+      </c>
+      <c r="B670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2">
+        <v>44660</v>
+      </c>
+      <c r="B671">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5314,7 +5314,7 @@
         <v>44594</v>
       </c>
       <c r="B616">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5354,7 +5354,7 @@
         <v>44599</v>
       </c>
       <c r="B621">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5362,7 +5362,7 @@
         <v>44600</v>
       </c>
       <c r="B622">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5386,7 +5386,7 @@
         <v>44603</v>
       </c>
       <c r="B625">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5410,7 +5410,7 @@
         <v>44606</v>
       </c>
       <c r="B628">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>44620</v>
       </c>
       <c r="B640">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5562,7 +5562,7 @@
         <v>44628</v>
       </c>
       <c r="B647">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5746,15 +5746,95 @@
         <v>44657</v>
       </c>
       <c r="B670">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2">
         <v>44660</v>
       </c>
-      <c r="B671">
+      <c r="B672">
         <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2">
+        <v>44662</v>
+      </c>
+      <c r="B673">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2">
+        <v>44663</v>
+      </c>
+      <c r="B674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2">
+        <v>44664</v>
+      </c>
+      <c r="B675">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2">
+        <v>44665</v>
+      </c>
+      <c r="B676">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2">
+        <v>44667</v>
+      </c>
+      <c r="B677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2">
+        <v>44670</v>
+      </c>
+      <c r="B678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2">
+        <v>44671</v>
+      </c>
+      <c r="B679">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2">
+        <v>44674</v>
+      </c>
+      <c r="B681">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B681"/>
+  <dimension ref="A1:B695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5306,7 +5306,7 @@
         <v>44593</v>
       </c>
       <c r="B615">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5314,7 +5314,7 @@
         <v>44594</v>
       </c>
       <c r="B616">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5322,7 +5322,7 @@
         <v>44595</v>
       </c>
       <c r="B617">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5354,7 +5354,7 @@
         <v>44599</v>
       </c>
       <c r="B621">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5362,7 +5362,7 @@
         <v>44600</v>
       </c>
       <c r="B622">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5714,7 +5714,7 @@
         <v>44651</v>
       </c>
       <c r="B666">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5727,7 +5727,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B668">
         <v>1</v>
@@ -5735,39 +5735,39 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44656</v>
+        <v>44654</v>
       </c>
       <c r="B669">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="B670">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44659</v>
+        <v>44657</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44660</v>
+        <v>44659</v>
       </c>
       <c r="B672">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44662</v>
+        <v>44660</v>
       </c>
       <c r="B673">
         <v>2</v>
@@ -5775,66 +5775,178 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="B675">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44665</v>
+        <v>44664</v>
       </c>
       <c r="B676">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44667</v>
+        <v>44665</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44670</v>
+        <v>44667</v>
       </c>
       <c r="B678">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B679">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B680">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B681">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2">
         <v>44674</v>
       </c>
-      <c r="B681">
+      <c r="B682">
         <v>4</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2">
+        <v>44677</v>
+      </c>
+      <c r="B683">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2">
+        <v>44678</v>
+      </c>
+      <c r="B684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
+        <v>44685</v>
+      </c>
+      <c r="B685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B686">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>44688</v>
+      </c>
+      <c r="B687">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B689">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>44693</v>
+      </c>
+      <c r="B690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>44697</v>
+      </c>
+      <c r="B691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>44700</v>
+      </c>
+      <c r="B692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>44704</v>
+      </c>
+      <c r="B693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
+        <v>44705</v>
+      </c>
+      <c r="B694">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B695">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B695"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5426,7 +5426,7 @@
         <v>44608</v>
       </c>
       <c r="B630">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>44609</v>
       </c>
       <c r="B631">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5458,7 +5458,7 @@
         <v>44613</v>
       </c>
       <c r="B634">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>44614</v>
       </c>
       <c r="B635">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>44615</v>
       </c>
       <c r="B636">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5482,7 +5482,7 @@
         <v>44616</v>
       </c>
       <c r="B637">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5874,7 +5874,7 @@
         <v>44687</v>
       </c>
       <c r="B686">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5946,6 +5946,126 @@
         <v>44706</v>
       </c>
       <c r="B695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>44716</v>
+      </c>
+      <c r="B696">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>44719</v>
+      </c>
+      <c r="B697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>44721</v>
+      </c>
+      <c r="B698">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>44722</v>
+      </c>
+      <c r="B699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>44723</v>
+      </c>
+      <c r="B700">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>44726</v>
+      </c>
+      <c r="B701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>44727</v>
+      </c>
+      <c r="B702">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>44729</v>
+      </c>
+      <c r="B703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>44730</v>
+      </c>
+      <c r="B704">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B705">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B706">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B707">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B708">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>44738</v>
+      </c>
+      <c r="B710">
         <v>1</v>
       </c>
     </row>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B710"/>
+  <dimension ref="A1:B715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6058,15 +6058,55 @@
         <v>44736</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44738</v>
+        <v>44737</v>
       </c>
       <c r="B710">
         <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>44738</v>
+      </c>
+      <c r="B711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B713">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>44741</v>
+      </c>
+      <c r="B714">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B715">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B715"/>
+  <dimension ref="A1:B717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6082,7 +6082,7 @@
         <v>44739</v>
       </c>
       <c r="B712">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6106,7 +6106,23 @@
         <v>44742</v>
       </c>
       <c r="B715">
-        <v>4</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B716">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B717">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B717"/>
+  <dimension ref="A1:B718"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6122,7 +6122,15 @@
         <v>44744</v>
       </c>
       <c r="B717">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2">
+        <v>44745</v>
+      </c>
+      <c r="B718">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B718"/>
+  <dimension ref="A1:B719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6130,7 +6130,15 @@
         <v>44745</v>
       </c>
       <c r="B718">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B719">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B719"/>
+  <dimension ref="A1:B720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6138,7 +6138,15 @@
         <v>44746</v>
       </c>
       <c r="B719">
-        <v>5</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B720">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B720"/>
+  <dimension ref="A1:B725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5986,7 +5986,7 @@
         <v>44723</v>
       </c>
       <c r="B700">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6018,7 +6018,7 @@
         <v>44730</v>
       </c>
       <c r="B704">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6082,7 +6082,7 @@
         <v>44739</v>
       </c>
       <c r="B712">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6090,7 +6090,7 @@
         <v>44740</v>
       </c>
       <c r="B713">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6114,7 +6114,7 @@
         <v>44743</v>
       </c>
       <c r="B716">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6122,7 +6122,7 @@
         <v>44744</v>
       </c>
       <c r="B717">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6146,7 +6146,47 @@
         <v>44747</v>
       </c>
       <c r="B720">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B721">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B722">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B723">
         <v>6</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B724">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2">
+        <v>44752</v>
+      </c>
+      <c r="B725">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -5986,7 +5986,7 @@
         <v>44723</v>
       </c>
       <c r="B700">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6018,7 +6018,7 @@
         <v>44730</v>
       </c>
       <c r="B704">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6082,7 +6082,7 @@
         <v>44739</v>
       </c>
       <c r="B712">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6090,7 +6090,7 @@
         <v>44740</v>
       </c>
       <c r="B713">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6114,7 +6114,7 @@
         <v>44743</v>
       </c>
       <c r="B716">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6122,7 +6122,7 @@
         <v>44744</v>
       </c>
       <c r="B717">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6162,7 +6162,7 @@
         <v>44749</v>
       </c>
       <c r="B722">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6170,7 +6170,7 @@
         <v>44750</v>
       </c>
       <c r="B723">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6178,7 +6178,7 @@
         <v>44751</v>
       </c>
       <c r="B724">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="725" spans="1:2">

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B725"/>
+  <dimension ref="A1:B727"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5986,7 +5986,7 @@
         <v>44723</v>
       </c>
       <c r="B700">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6018,7 +6018,7 @@
         <v>44730</v>
       </c>
       <c r="B704">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6082,7 +6082,7 @@
         <v>44739</v>
       </c>
       <c r="B712">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6090,7 +6090,7 @@
         <v>44740</v>
       </c>
       <c r="B713">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6114,7 +6114,7 @@
         <v>44743</v>
       </c>
       <c r="B716">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6122,7 +6122,7 @@
         <v>44744</v>
       </c>
       <c r="B717">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6178,7 +6178,7 @@
         <v>44751</v>
       </c>
       <c r="B724">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6186,7 +6186,23 @@
         <v>44752</v>
       </c>
       <c r="B725">
-        <v>2</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B726">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B727">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B727"/>
+  <dimension ref="A1:B735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6170,7 +6170,7 @@
         <v>44750</v>
       </c>
       <c r="B723">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6202,7 +6202,71 @@
         <v>44754</v>
       </c>
       <c r="B727">
-        <v>36</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B728">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B729">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B730">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B731">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B732">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2">
+        <v>44760</v>
+      </c>
+      <c r="B733">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B734">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B735">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B735"/>
+  <dimension ref="A1:B739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6258,7 +6258,7 @@
         <v>44761</v>
       </c>
       <c r="B734">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6266,7 +6266,39 @@
         <v>44762</v>
       </c>
       <c r="B735">
-        <v>179</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B736">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B737">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B738">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2">
+        <v>44766</v>
+      </c>
+      <c r="B739">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B739"/>
+  <dimension ref="A1:B740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6282,7 +6282,7 @@
         <v>44764</v>
       </c>
       <c r="B737">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6298,7 +6298,15 @@
         <v>44766</v>
       </c>
       <c r="B739">
-        <v>1</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B740">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B740"/>
+  <dimension ref="A1:B745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6210,7 +6210,7 @@
         <v>44755</v>
       </c>
       <c r="B728">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6226,7 +6226,7 @@
         <v>44757</v>
       </c>
       <c r="B730">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6250,7 +6250,7 @@
         <v>44760</v>
       </c>
       <c r="B733">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6258,7 +6258,7 @@
         <v>44761</v>
       </c>
       <c r="B734">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6266,7 +6266,7 @@
         <v>44762</v>
       </c>
       <c r="B735">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6274,7 +6274,7 @@
         <v>44763</v>
       </c>
       <c r="B736">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6290,7 +6290,7 @@
         <v>44765</v>
       </c>
       <c r="B738">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6298,7 +6298,7 @@
         <v>44766</v>
       </c>
       <c r="B739">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6306,7 +6306,47 @@
         <v>44767</v>
       </c>
       <c r="B740">
-        <v>52</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B741">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B742">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B743">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B744">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B745">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B745"/>
+  <dimension ref="A1:B747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6349,6 +6349,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B746">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B747">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B747"/>
+  <dimension ref="A1:B748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6362,7 +6362,15 @@
         <v>44774</v>
       </c>
       <c r="B747">
-        <v>15</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B748">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B748"/>
+  <dimension ref="A1:B751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6346,7 +6346,7 @@
         <v>44772</v>
       </c>
       <c r="B745">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6370,7 +6370,31 @@
         <v>44775</v>
       </c>
       <c r="B748">
-        <v>8</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B749">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B750">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B751">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B751"/>
+  <dimension ref="A1:B754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6130,7 +6130,7 @@
         <v>44745</v>
       </c>
       <c r="B718">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6210,7 +6210,7 @@
         <v>44755</v>
       </c>
       <c r="B728">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6378,7 +6378,7 @@
         <v>44776</v>
       </c>
       <c r="B749">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6394,7 +6394,31 @@
         <v>44778</v>
       </c>
       <c r="B751">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B752">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2">
+        <v>44780</v>
+      </c>
+      <c r="B753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B754">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B754"/>
+  <dimension ref="A1:B760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3802,7 +3802,7 @@
         <v>44365</v>
       </c>
       <c r="B427">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>44366</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3834,7 +3834,7 @@
         <v>44369</v>
       </c>
       <c r="B431">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3842,7 +3842,7 @@
         <v>44370</v>
       </c>
       <c r="B432">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>44371</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>44372</v>
       </c>
       <c r="B434">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>44374</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -6170,7 +6170,7 @@
         <v>44750</v>
       </c>
       <c r="B723">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6394,7 +6394,7 @@
         <v>44778</v>
       </c>
       <c r="B751">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6418,6 +6418,54 @@
         <v>44781</v>
       </c>
       <c r="B754">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B755">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B756">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B757">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B758">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B759">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2">
+        <v>44787</v>
+      </c>
+      <c r="B760">
         <v>10</v>
       </c>
     </row>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B760"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6394,7 +6394,7 @@
         <v>44778</v>
       </c>
       <c r="B751">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6450,7 +6450,7 @@
         <v>44785</v>
       </c>
       <c r="B758">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6458,7 +6458,7 @@
         <v>44786</v>
       </c>
       <c r="B759">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6467,6 +6467,14 @@
       </c>
       <c r="B760">
         <v>10</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B761">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B761"/>
+  <dimension ref="A1:B769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3922,7 +3922,7 @@
         <v>44380</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>44381</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44382</v>
       </c>
       <c r="B444">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>44383</v>
       </c>
       <c r="B445">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>44384</v>
       </c>
       <c r="B446">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>44385</v>
       </c>
       <c r="B447">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -6202,7 +6202,7 @@
         <v>44754</v>
       </c>
       <c r="B727">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6210,7 +6210,7 @@
         <v>44755</v>
       </c>
       <c r="B728">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6218,7 +6218,7 @@
         <v>44756</v>
       </c>
       <c r="B729">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6226,7 +6226,7 @@
         <v>44757</v>
       </c>
       <c r="B730">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6234,7 +6234,7 @@
         <v>44758</v>
       </c>
       <c r="B731">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6250,7 +6250,7 @@
         <v>44760</v>
       </c>
       <c r="B733">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6258,7 +6258,7 @@
         <v>44761</v>
       </c>
       <c r="B734">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6266,7 +6266,7 @@
         <v>44762</v>
       </c>
       <c r="B735">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6274,7 +6274,7 @@
         <v>44763</v>
       </c>
       <c r="B736">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6282,7 +6282,7 @@
         <v>44764</v>
       </c>
       <c r="B737">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6290,7 +6290,7 @@
         <v>44765</v>
       </c>
       <c r="B738">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6306,7 +6306,7 @@
         <v>44767</v>
       </c>
       <c r="B740">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6354,7 +6354,7 @@
         <v>44773</v>
       </c>
       <c r="B746">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6362,7 +6362,7 @@
         <v>44774</v>
       </c>
       <c r="B747">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6370,7 +6370,7 @@
         <v>44775</v>
       </c>
       <c r="B748">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6378,7 +6378,7 @@
         <v>44776</v>
       </c>
       <c r="B749">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6386,7 +6386,7 @@
         <v>44777</v>
       </c>
       <c r="B750">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6426,7 +6426,7 @@
         <v>44782</v>
       </c>
       <c r="B755">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6474,7 +6474,71 @@
         <v>44788</v>
       </c>
       <c r="B761">
-        <v>11</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B762">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B763">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B764">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B766">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2">
+        <v>44794</v>
+      </c>
+      <c r="B767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B768">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B769">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B769"/>
+  <dimension ref="A1:B775"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3970,7 +3970,7 @@
         <v>44386</v>
       </c>
       <c r="B448">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -6498,7 +6498,7 @@
         <v>44791</v>
       </c>
       <c r="B764">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6538,7 +6538,55 @@
         <v>44796</v>
       </c>
       <c r="B769">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B770">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B771">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B774">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B775">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B775"/>
+  <dimension ref="A1:B778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4002,7 +4002,7 @@
         <v>44390</v>
       </c>
       <c r="B452">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44391</v>
       </c>
       <c r="B453">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>44392</v>
       </c>
       <c r="B454">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -6570,7 +6570,7 @@
         <v>44800</v>
       </c>
       <c r="B773">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6586,7 +6586,31 @@
         <v>44803</v>
       </c>
       <c r="B775">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B776">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B777">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B778">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B778"/>
+  <dimension ref="A1:B782"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4050,7 +4050,7 @@
         <v>44397</v>
       </c>
       <c r="B458">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4058,164 +4058,164 @@
         <v>44398</v>
       </c>
       <c r="B459">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B460">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B461">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44403</v>
+        <v>44401</v>
       </c>
       <c r="B462">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B463">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B464">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44406</v>
+        <v>44405</v>
       </c>
       <c r="B465">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44407</v>
+        <v>44406</v>
       </c>
       <c r="B466">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B467">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B468">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B470">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B472">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B473">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B475">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44420</v>
+        <v>44418</v>
       </c>
       <c r="B476">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B477">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44422</v>
+        <v>44421</v>
       </c>
       <c r="B478">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44423</v>
+        <v>44422</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,31 +4223,31 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="B480">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B481">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B482">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B483">
         <v>3</v>
@@ -4255,167 +4255,167 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B485">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44431</v>
+        <v>44429</v>
       </c>
       <c r="B486">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B487">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44433</v>
+        <v>44432</v>
       </c>
       <c r="B488">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B490">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44439</v>
+        <v>44435</v>
       </c>
       <c r="B491">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="B492">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44442</v>
+        <v>44440</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="B494">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44445</v>
+        <v>44443</v>
       </c>
       <c r="B495">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="B496">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44451</v>
+        <v>44447</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44452</v>
+        <v>44451</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="B500">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B501">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B504">
         <v>2</v>
@@ -4423,71 +4423,71 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44459</v>
+        <v>44457</v>
       </c>
       <c r="B505">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B509">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44466</v>
+        <v>44464</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B511">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B513">
         <v>2</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B514">
         <v>2</v>
@@ -4503,55 +4503,55 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44473</v>
+        <v>44471</v>
       </c>
       <c r="B516">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44476</v>
+        <v>44474</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44480</v>
+        <v>44476</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B521">
         <v>4</v>
@@ -4559,39 +4559,39 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B522">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B524">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44487</v>
+        <v>44485</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B526">
         <v>2</v>
@@ -4599,15 +4599,15 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,143 +4615,143 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44494</v>
+        <v>44492</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B534">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44501</v>
+        <v>44498</v>
       </c>
       <c r="B536">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44503</v>
+        <v>44501</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B540">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44507</v>
+        <v>44506</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44509</v>
+        <v>44507</v>
       </c>
       <c r="B542">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B543">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44515</v>
+        <v>44512</v>
       </c>
       <c r="B546">
         <v>2</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44516</v>
+        <v>44515</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -4767,47 +4767,47 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="B548">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44520</v>
+        <v>44518</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44522</v>
+        <v>44520</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44524</v>
+        <v>44522</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B553">
         <v>3</v>
@@ -4815,15 +4815,15 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44527</v>
+        <v>44526</v>
       </c>
       <c r="B555">
         <v>7</v>
@@ -4831,15 +4831,15 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,15 +4847,15 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B558">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44532</v>
+        <v>44530</v>
       </c>
       <c r="B559">
         <v>4</v>
@@ -4863,103 +4863,103 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44534</v>
+        <v>44532</v>
       </c>
       <c r="B560">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44536</v>
+        <v>44534</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B562">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="B566">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44545</v>
+        <v>44544</v>
       </c>
       <c r="B570">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44547</v>
+        <v>44545</v>
       </c>
       <c r="B571">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="B572">
         <v>9</v>
@@ -4967,15 +4967,15 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44550</v>
+        <v>44548</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B575">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B576">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="B577">
         <v>3</v>
@@ -5007,391 +5007,391 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44555</v>
+        <v>44554</v>
       </c>
       <c r="B578">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44557</v>
+        <v>44555</v>
       </c>
       <c r="B579">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="B580">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B582">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B583">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44562</v>
+        <v>44561</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B585">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B586">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B587">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B588">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B589">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B590">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B591">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B592">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B593">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B594">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B595">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B596">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B597">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B598">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B599">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B600">
-        <v>129</v>
+        <v>24</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B601">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B602">
-        <v>92</v>
+        <v>158</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B603">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B604">
-        <v>196</v>
+        <v>100</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B605">
-        <v>243</v>
+        <v>196</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B606">
-        <v>21</v>
+        <v>243</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B607">
-        <v>245</v>
+        <v>21</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B608">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B609">
-        <v>162</v>
+        <v>313</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B610">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B611">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B612">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B613">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B614">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B615">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B616">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B617">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B618">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B619">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B620">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B621">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B622">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B623">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B624">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B625">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B626">
         <v>27</v>
@@ -5399,127 +5399,127 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B627">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B628">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B629">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B630">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B631">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B632">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B633">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44613</v>
+        <v>44611</v>
       </c>
       <c r="B634">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B635">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B636">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B637">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B638">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B639">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B640">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B641">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B642">
         <v>7</v>
@@ -5527,71 +5527,71 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B643">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B644">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B645">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B646">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B647">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B648">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B649">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B650">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B651">
         <v>3</v>
@@ -5599,71 +5599,71 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44634</v>
+        <v>44632</v>
       </c>
       <c r="B652">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B653">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B654">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B655">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B656">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B657">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44641</v>
+        <v>44639</v>
       </c>
       <c r="B658">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44642</v>
+        <v>44641</v>
       </c>
       <c r="B659">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B660">
         <v>2</v>
@@ -5671,15 +5671,15 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B661">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,47 +5687,47 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44646</v>
+        <v>44645</v>
       </c>
       <c r="B663">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44648</v>
+        <v>44646</v>
       </c>
       <c r="B664">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B665">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44651</v>
+        <v>44649</v>
       </c>
       <c r="B666">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B667">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B668">
         <v>1</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B669">
         <v>1</v>
@@ -5743,39 +5743,39 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44656</v>
+        <v>44654</v>
       </c>
       <c r="B670">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="B671">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44659</v>
+        <v>44657</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44660</v>
+        <v>44659</v>
       </c>
       <c r="B673">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44662</v>
+        <v>44660</v>
       </c>
       <c r="B674">
         <v>2</v>
@@ -5783,23 +5783,23 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="B676">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44665</v>
+        <v>44664</v>
       </c>
       <c r="B677">
         <v>4</v>
@@ -5807,63 +5807,63 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44667</v>
+        <v>44665</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44670</v>
+        <v>44667</v>
       </c>
       <c r="B679">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B680">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B681">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44674</v>
+        <v>44672</v>
       </c>
       <c r="B682">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44677</v>
+        <v>44674</v>
       </c>
       <c r="B683">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="B685">
         <v>1</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44687</v>
+        <v>44685</v>
       </c>
       <c r="B686">
         <v>1</v>
@@ -5879,31 +5879,31 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="B687">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44690</v>
+        <v>44688</v>
       </c>
       <c r="B688">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44692</v>
+        <v>44690</v>
       </c>
       <c r="B689">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44693</v>
+        <v>44692</v>
       </c>
       <c r="B690">
         <v>2</v>
@@ -5911,15 +5911,15 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44697</v>
+        <v>44693</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44700</v>
+        <v>44697</v>
       </c>
       <c r="B692">
         <v>1</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44704</v>
+        <v>44700</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -5935,95 +5935,95 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44705</v>
+        <v>44704</v>
       </c>
       <c r="B694">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44706</v>
+        <v>44705</v>
       </c>
       <c r="B695">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44716</v>
+        <v>44706</v>
       </c>
       <c r="B696">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44719</v>
+        <v>44716</v>
       </c>
       <c r="B697">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44721</v>
+        <v>44719</v>
       </c>
       <c r="B698">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44722</v>
+        <v>44721</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="B700">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44726</v>
+        <v>44723</v>
       </c>
       <c r="B701">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="B702">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44729</v>
+        <v>44727</v>
       </c>
       <c r="B703">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44730</v>
+        <v>44729</v>
       </c>
       <c r="B704">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44732</v>
+        <v>44730</v>
       </c>
       <c r="B705">
         <v>2</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B706">
         <v>2</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B707">
         <v>2</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B708">
         <v>2</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B709">
         <v>2</v>
@@ -6063,15 +6063,15 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44737</v>
+        <v>44736</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44738</v>
+        <v>44737</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -6079,39 +6079,39 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B712">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B713">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B714">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B715">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B716">
         <v>6</v>
@@ -6119,47 +6119,47 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B717">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B718">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B719">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B720">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B721">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B722">
         <v>13</v>
@@ -6167,391 +6167,391 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B723">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B724">
-        <v>81</v>
+        <v>19</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="B725">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B726">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B727">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B728">
-        <v>191</v>
+        <v>48</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B729">
-        <v>83</v>
+        <v>191</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B730">
-        <v>374</v>
+        <v>83</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B731">
-        <v>217</v>
+        <v>374</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B732">
-        <v>33</v>
+        <v>217</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B733">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B734">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B735">
-        <v>214</v>
+        <v>90</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B736">
-        <v>82</v>
+        <v>214</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B737">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B738">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B739">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B740">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="B741">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="B742">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44770</v>
+        <v>44769</v>
       </c>
       <c r="B743">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B744">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B745">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B746">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B747">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B748">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="B749">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B750">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B751">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B752">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B753">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B754">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>44782</v>
+        <v>44781</v>
       </c>
       <c r="B755">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="B756">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>44784</v>
+        <v>44783</v>
       </c>
       <c r="B757">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>44785</v>
+        <v>44784</v>
       </c>
       <c r="B758">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B759">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B760">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="B761">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>44789</v>
+        <v>44788</v>
       </c>
       <c r="B762">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B763">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>44791</v>
+        <v>44790</v>
       </c>
       <c r="B764">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
       <c r="B765">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>44793</v>
+        <v>44792</v>
       </c>
       <c r="B766">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>44794</v>
+        <v>44793</v>
       </c>
       <c r="B767">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B768">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
       <c r="B769">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>44797</v>
+        <v>44796</v>
       </c>
       <c r="B770">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="B771">
         <v>3</v>
@@ -6559,39 +6559,39 @@
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="B772">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>44800</v>
+        <v>44799</v>
       </c>
       <c r="B773">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>44802</v>
+        <v>44800</v>
       </c>
       <c r="B774">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>44803</v>
+        <v>44802</v>
       </c>
       <c r="B775">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>44804</v>
+        <v>44803</v>
       </c>
       <c r="B776">
         <v>2</v>
@@ -6599,18 +6599,50 @@
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>44805</v>
+        <v>44804</v>
       </c>
       <c r="B777">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B778">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="2">
         <v>44806</v>
       </c>
-      <c r="B778">
-        <v>3</v>
+      <c r="B779">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B780">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B781">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="2">
+        <v>44814</v>
+      </c>
+      <c r="B782">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B782"/>
+  <dimension ref="A1:B786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6645,6 +6645,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="2">
+        <v>44819</v>
+      </c>
+      <c r="B784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="2">
+        <v>44821</v>
+      </c>
+      <c r="B785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="2">
+        <v>44822</v>
+      </c>
+      <c r="B786">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B789"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4122,7 +4122,7 @@
         <v>44407</v>
       </c>
       <c r="B467">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>44408</v>
       </c>
       <c r="B468">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>44432</v>
       </c>
       <c r="B488">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>44434</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>44435</v>
       </c>
       <c r="B491">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>44440</v>
       </c>
       <c r="B493">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>44443</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>44445</v>
       </c>
       <c r="B496">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -6674,6 +6674,30 @@
         <v>44822</v>
       </c>
       <c r="B786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B789">
         <v>1</v>
       </c>
     </row>

--- a/regiones/casos_madrededios.xlsx
+++ b/regiones/casos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B789"/>
+  <dimension ref="A1:B791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4370,7 +4370,7 @@
         <v>44447</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>44452</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -6699,6 +6699,22 @@
       </c>
       <c r="B789">
         <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B791">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
